--- a/artigos_selecionados.xlsx
+++ b/artigos_selecionados.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis-\Documents\GitHub\Projeto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2750A61-1362-493A-A72C-05D4945D1F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
   <si>
     <t>Pmid</t>
   </si>
@@ -43,9 +49,6 @@
     <t>Phytochemical analysis and antimicrobial activity of aqueous and methanolic extracts of the flowers of Nelumbium speciosum.</t>
   </si>
   <si>
-    <t>Composition and pharmacological activity of essential oils from two imported Amomum subulatum fruit samples.</t>
-  </si>
-  <si>
     <t>Chlorhexidine and octenidine susceptibility of bacterial isolates from clinical samples in a three-armed cluster randomised decolonisation trial.</t>
   </si>
   <si>
@@ -343,9 +346,6 @@
     <t>Bashir S(1), Sial RN(1), Ashraf MU(1), Mushtaq MN(1), Adnan MA(2), Erum A(1).</t>
   </si>
   <si>
-    <t>Alam A(1), Singh V(1).</t>
-  </si>
-  <si>
     <t>Denkel LA(1)(2), Kramer TS(1)(2), Schwab F(1)(2), Golembus J(1)(2), Wolke S(1)(2), Gastmeier P(1)(2), Geffers C(1)(2).</t>
   </si>
   <si>
@@ -643,9 +643,6 @@
     <t>In present investigation aqueous and methanolic extracts of Nelumbium speciosum flowers were screened for phytochemical constituents and antibacterial activity to ascertain their traditional use. Antimicrobial activity of both extracts was tested by Kirby-Bauer disc diffusion method against four Gram positive strains, viz. Staphylococcus aureus (ATCC25923), Streptococcus agalactiae (13813), Bacillus subtilis (ATCC 6633), Staphylococcus epidermidis (ATCC 12228) and four Gram negative bacterial strains Escherichia coli (ATCC 8739), Pseudomonas aeruginosa (ATCC 27853), Proteus mirabilis (12453) and Klebsiella pneumoniae (10031). Phytochemical analysis showed the presence of tannins, saponins and alkaloids in both extracts while flavonoids and steroids were present only in methanolic extract. Methanolic extract of Nelumbium speciosum flower showed concentration dependent antibacterial activity against all tested strains with maximum zone of inhibition (17.30.3mm) against P. aeruginosa. Aqueous extract showed concentration dependent activity against S. aureus, E. coli, B. subtilis and S. epidermidis with maximum antibacterial activity against E. coli (14.30.3mm). MIC of methanolic and aqueous extracts was in the range of 0.015-0.251 and 0.0625-0.251 mg/mL, respectively. Results showed that methanolic extract of Nelumbium speciosum exhibits superior antibacterial activity than aqueous extract.</t>
   </si>
   <si>
-    <t>Publisher:  :                                 . :                              .             (     )              .                   (,-  -  )               .:                                    : .-  ( . .  )  - ( . .  )  -- ( . .  )    ( . .  ) - ( . .  ).                     .-.           .                     . . /       .            .:                    .                    .</t>
-  </si>
-  <si>
     <t>BACKGROUND: Routine use of chlorhexidine or octenidine for antiseptic bathing may have unintended consequences. Our analysis aimed to assess the phenotypic susceptibility of bacterial isolates from clinical samples to chlorhexidine and octenidine collected from intensive care units (ICU) that routinely used 2% chlorhexidine-impregnated wash cloths or 0.08% octenidine wash mitts (intervention) or water and soap (control) for daily patient care.METHODS: This study was conducted within the context of a three armed cluster-randomised controlled decolonisation trial (Registration number DRKS00010475, registration date August 18, 2016). Bacterial isolates were collected prior to and at the end of a 12-month-intervention period from patients with  3 days length of stay at an ICU assigned to one of two intervention groups or the control group. Phenotypic susceptibility to chlorhexidine and octenidine was assessed by an accredited contract research laboratory determining minimal inhibitory concentrations (MIC) as percentage of extraction solutions used. MIC were reported as estimated concentrations in g/ml derived from the chlorhexidine and octenidine extraction solutions. Statistical analyses including generalized estimating equation models were applied.RESULTS: In total, 790 ICU-attributable bacterial isolates from clinical samples (e.g. blood, urine, tracheal aspirate) were eligible for all analyses. Pathogens included were Staphylococcus aureus (n = 155), coagulase-negative staphylococci (CoNS, n = 122), Escherichia coli (n = 227), Klebsiella spp. (n = 150) and Pseudomonas aeruginosa (n = 136). For all species, chlorhexidine and octenidine MIC did not increase from baseline to intervention period in the antiseptic bathing groups. For proportions of bacterial isolates with elevated chlorhexidine / octenidine MIC ( species-specific chlorhexidine / octenidine MIC50), adjusted incidence rate ratios (aIRR) showed no differences between the intervention groups and the control group (intervention period).CONCLUSION: We found no evidence for reduced phenotypic susceptibilities of bacterial isolates from clinical samples to chlorhexidine or octenidine in ICUs 12 months after implementation of routine antiseptic bathing with the respective substances.</t>
   </si>
   <si>
@@ -929,13 +926,28 @@
   </si>
   <si>
     <t>Translocase MraY is the target for bacteriophage X174 lysis protein E, which interacts via a protein-protein interaction mediated by Phe-288 and Glu-287 of E. coli MraY, and an Arg-Trp-x-x-Trp motif on protein E, also found in several cationic antimicrobial peptides. Analogues of Arg-Trp-octyl ester, found previously to show antimicrobial activity, were tested for antimicrobial activity, with Lys-Trp-oct (MIC50P. fluorescens 5g/mL) and Arg-Trp-decyl ester (MIC50P. fluorescens 3g/mL) showing enhanced antimicrobial activity. Synthesis and testing of -helix peptidomimetic analogues for this motif revealed improved antibacterial activity (MIC50E. coli 4-7g/mL) for analogues containing two aromatic substituents, mimicking the Arg-Trp-x-x-Trp motif, and MraY inhibition (IC50 140M) by one such peptidomimetic. Investigation of mechanism of action using the Alamar Blue membrane permeabilisation assay revealed bacteriostatic and bacteriocidal mechanisms in different members of this set of compounds, raising the possibility of more than one biological target. The observed antimicrobial activity and MraY inhibition shown by peptidomimetic compounds confirms that this site could be targeted by drug-like molecules.</t>
+  </si>
+  <si>
+    <t>33711366</t>
+  </si>
+  <si>
+    <t>The sensitivity of multiple ecotoxicological assays for evaluating Microcystis aeruginosa cellular algal organic matter and contribution of cyanotoxins to the toxicity.</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Šrédlová K(1), Šilhavecká S(1), Linhartová L(1), Semerád J(1), Michalíková K(2), Pivokonský M(3), Cajthaml T(4).</t>
+  </si>
+  <si>
+    <t>Secondary metabolites of cyanobacteria and algae released during algal blooms often exhibit toxic effects, but only a small number of the metabolites are the subject of routine analytical screenings. Alternatively, ecotoxicological assays offer a better representation of the overall negative effects. The aim of this work was to compare multiple assays in their sensitivity towards cellular algal organic matter (COM) of the toxin-producing cyanobacterium Microcystis aeruginosa. Multiple endpoints were investigated: mortality, growth inhibition, bioluminescence inhibition, genotoxicity, endocrine-disrupting effects, oxidative stress, and the induction of ethoxyresorufin-O-deethylase (EROD). Three rainbow trout (Oncorhynchus mykiss) cell lines as well as representatives of bacteria, yeasts, algae, vascular plants, and crustaceans were employed, and the results were expressed per mg of dissolved organic carbon (DOC) in the COM. M. aeruginosa COM was toxic to the RTgill-W1, RTG-2, and RTL-W1 cell lines (EC50 values ranging from 0.48 ± 0.02 to 1.9 ± 0.1 mgDOC/L), to the crustacean Thamnocephalus platyurus (LC50 = 20 ± 1 mgDOC/L), and to Lepidium sativum (IC50 = 241 ± 13 mgDOC/L). In contrast, no effect was observed for bacteria and yeasts, and the growth of the alga Desmodesmus subspicatus was even stimulated. No genotoxicity, endocrine-disrupting effects or increase in oxidative stress or EROD activity was detected. The content of six microcystins (MC-LR, MC-RR, MC-YR, MC-LY, MC-LW, and MC-LF), anatoxin-a, cylindrospermopsin, and nodularin in the M. aeruginosa COM was determined by liquid chromatography-tandem mass spectrometry. An artificially prepared mixture of the detected cyanotoxins in the corresponding concentrations did not induce response in the O. mykiss cell lines and T. platyurus, suggesting that other cyanobacterial metabolites are responsible for the toxicity of M. aeruginosa.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,10 +999,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -998,13 +1013,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1042,7 +1065,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1076,6 +1099,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1110,9 +1134,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1285,14 +1310,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +1336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>29991761</v>
       </c>
@@ -1320,13 +1347,13 @@
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>30959097</v>
       </c>
@@ -1337,13 +1364,13 @@
         <v>2019</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>32835792</v>
       </c>
@@ -1354,13 +1381,13 @@
         <v>2020</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>30473514</v>
       </c>
@@ -1371,83 +1398,83 @@
         <v>2018</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>33897328</v>
+        <v>36516147</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>36516147</v>
+        <v>30593676</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>30593676</v>
+        <v>36204117</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>36204117</v>
+        <v>33116517</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>33116517</v>
+        <v>33255562</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1456,576 +1483,576 @@
         <v>2020</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>33255562</v>
+        <v>24594526</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>24594526</v>
+        <v>36673482</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>36673482</v>
+        <v>20714310</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13">
-        <v>2023</v>
+        <v>2010</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>20714310</v>
+        <v>25063143</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>25063143</v>
+        <v>27392698</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>27392698</v>
+        <v>28595608</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>28595608</v>
+        <v>26162518</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>26162518</v>
+        <v>21074370</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="C18">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>21074370</v>
+        <v>27167126</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>27167126</v>
+        <v>20945508</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20945508</v>
+        <v>34223140</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="C21">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>34223140</v>
+        <v>29395713</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
       <c r="C22">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>29395713</v>
+        <v>29133568</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>29133568</v>
+        <v>35882691</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>35882691</v>
+        <v>25299086</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
       <c r="C25">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25299086</v>
+        <v>36475801</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
       <c r="C26">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>36475801</v>
+        <v>28669053</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
       <c r="C27">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>28669053</v>
+        <v>36603244</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
       <c r="C28">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>36603244</v>
+        <v>27347525</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
       <c r="C29">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>27347525</v>
+        <v>34348053</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
       <c r="C30">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E30" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>34348053</v>
+        <v>24009954</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
       <c r="C31">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>24009954</v>
+        <v>31220803</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
       <c r="C32">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>31220803</v>
+        <v>35621949</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
       </c>
       <c r="C33">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E33" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>35621949</v>
+        <v>26698267</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
       </c>
       <c r="C34">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E34" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>26698267</v>
+        <v>30473521</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
       </c>
       <c r="C35">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>30473521</v>
+        <v>25897961</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
       </c>
       <c r="C36">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E36" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>25897961</v>
+        <v>31857249</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
       <c r="C37">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E37" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>31857249</v>
+        <v>28000767</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
       <c r="C38">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E38" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>28000767</v>
+        <v>36083849</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
       </c>
       <c r="C39">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E39" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>36083849</v>
+        <v>22770774</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
       </c>
       <c r="C40">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E40" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>22770774</v>
+        <v>29566483</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
       </c>
       <c r="C41">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E41" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>29566483</v>
+        <v>25293767</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
       </c>
       <c r="C42">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E42" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>25293767</v>
+        <v>35215291</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
       </c>
       <c r="C43">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E43" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>35215291</v>
+        <v>35904000</v>
       </c>
       <c r="B44" t="s">
         <v>47</v>
@@ -2034,355 +2061,355 @@
         <v>2022</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E44" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>35904000</v>
+        <v>32746634</v>
       </c>
       <c r="B45" t="s">
         <v>48</v>
       </c>
       <c r="C45">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E45" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>32746634</v>
+        <v>25280163</v>
       </c>
       <c r="B46" t="s">
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="D46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E46" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>25280163</v>
+        <v>23793941</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
       </c>
       <c r="C47">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E47" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>23793941</v>
+        <v>36431942</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
       </c>
       <c r="C48">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="D48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E48" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>36431942</v>
+        <v>32659646</v>
       </c>
       <c r="B49" t="s">
         <v>52</v>
       </c>
       <c r="C49">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E49" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>32659646</v>
+        <v>30654670</v>
       </c>
       <c r="B50" t="s">
         <v>53</v>
       </c>
       <c r="C50">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E50" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>30654670</v>
+        <v>21770434</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
       </c>
       <c r="C51">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>21770434</v>
+        <v>32583746</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
       </c>
       <c r="C52">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="D52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E52" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>32583746</v>
+        <v>34199966</v>
       </c>
       <c r="B53" t="s">
         <v>56</v>
       </c>
       <c r="C53">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E53" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>34199966</v>
+        <v>29668795</v>
       </c>
       <c r="B54" t="s">
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E54" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>29668795</v>
+        <v>25367459</v>
       </c>
       <c r="B55" t="s">
         <v>58</v>
       </c>
       <c r="C55">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E55" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>25367459</v>
+        <v>31356956</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E56" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>31356956</v>
+        <v>33318007</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E57" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>33318007</v>
+        <v>27891157</v>
       </c>
       <c r="B58" t="s">
         <v>61</v>
       </c>
       <c r="C58">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E58" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>27891157</v>
+        <v>34238110</v>
       </c>
       <c r="B59" t="s">
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E59" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>34238110</v>
+        <v>26863149</v>
       </c>
       <c r="B60" t="s">
         <v>63</v>
       </c>
       <c r="C60">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E60" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>26863149</v>
+        <v>32738979</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E61" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>32738979</v>
+        <v>21787731</v>
       </c>
       <c r="B62" t="s">
         <v>65</v>
       </c>
       <c r="C62">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="D62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E62" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>21787731</v>
+        <v>34636064</v>
       </c>
       <c r="B63" t="s">
         <v>66</v>
       </c>
       <c r="C63">
-        <v>2011</v>
+        <v>2022</v>
       </c>
       <c r="D63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E63" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>34636064</v>
+        <v>26904730</v>
       </c>
       <c r="B64" t="s">
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="D64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E64" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>26904730</v>
+        <v>25026361</v>
       </c>
       <c r="B65" t="s">
         <v>68</v>
@@ -2391,15 +2418,15 @@
         <v>2014</v>
       </c>
       <c r="D65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E65" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>25026361</v>
+        <v>24795516</v>
       </c>
       <c r="B66" t="s">
         <v>69</v>
@@ -2408,270 +2435,270 @@
         <v>2014</v>
       </c>
       <c r="D66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E66" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>24795516</v>
+        <v>32408576</v>
       </c>
       <c r="B67" t="s">
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E67" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>32408576</v>
+        <v>36201048</v>
       </c>
       <c r="B68" t="s">
         <v>71</v>
       </c>
       <c r="C68">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E68" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>36201048</v>
+        <v>26929583</v>
       </c>
       <c r="B69" t="s">
         <v>72</v>
       </c>
       <c r="C69">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="D69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E69" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>26929583</v>
+        <v>24287999</v>
       </c>
       <c r="B70" t="s">
         <v>73</v>
       </c>
       <c r="C70">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E70" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>24287999</v>
+        <v>31187657</v>
       </c>
       <c r="B71" t="s">
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="D71" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E71" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>31187657</v>
+        <v>33438033</v>
       </c>
       <c r="B72" t="s">
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E72" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>33438033</v>
+        <v>30077948</v>
       </c>
       <c r="B73" t="s">
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D73" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E73" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>30077948</v>
+        <v>27835979</v>
       </c>
       <c r="B74" t="s">
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D74" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E74" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>27835979</v>
+        <v>23190078</v>
       </c>
       <c r="B75" t="s">
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D75" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E75" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>23190078</v>
+        <v>24799418</v>
       </c>
       <c r="B76" t="s">
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D76" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E76" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>24799418</v>
+        <v>36437730</v>
       </c>
       <c r="B77" t="s">
         <v>80</v>
       </c>
       <c r="C77">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="D77" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E77" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>36437730</v>
+        <v>31735572</v>
       </c>
       <c r="B78" t="s">
         <v>81</v>
       </c>
       <c r="C78">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E78" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>31735572</v>
+        <v>21612612</v>
       </c>
       <c r="B79" t="s">
         <v>82</v>
       </c>
       <c r="C79">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="D79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E79" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>21612612</v>
+        <v>33374438</v>
       </c>
       <c r="B80" t="s">
         <v>83</v>
       </c>
       <c r="C80">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="D80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E80" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>33374438</v>
+        <v>27881119</v>
       </c>
       <c r="B81" t="s">
         <v>84</v>
       </c>
       <c r="C81">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E81" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>27881119</v>
+        <v>27246877</v>
       </c>
       <c r="B82" t="s">
         <v>85</v>
@@ -2680,134 +2707,134 @@
         <v>2016</v>
       </c>
       <c r="D82" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E82" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>27246877</v>
+        <v>32059431</v>
       </c>
       <c r="B83" t="s">
         <v>86</v>
       </c>
       <c r="C83">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D83" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E83" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>32059431</v>
+        <v>26318069</v>
       </c>
       <c r="B84" t="s">
         <v>87</v>
       </c>
       <c r="C84">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="D84" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E84" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>26318069</v>
+        <v>24250573</v>
       </c>
       <c r="B85" t="s">
         <v>88</v>
       </c>
       <c r="C85">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D85" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E85" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>24250573</v>
+        <v>25859852</v>
       </c>
       <c r="B86" t="s">
         <v>89</v>
       </c>
       <c r="C86">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D86" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E86" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>25859852</v>
+        <v>22852305</v>
       </c>
       <c r="B87" t="s">
         <v>90</v>
       </c>
       <c r="C87">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D87" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E87" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>22852305</v>
+        <v>32304793</v>
       </c>
       <c r="B88" t="s">
         <v>91</v>
       </c>
       <c r="C88">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="D88" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E88" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>32304793</v>
+        <v>30223483</v>
       </c>
       <c r="B89" t="s">
         <v>92</v>
       </c>
       <c r="C89">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E89" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>30223483</v>
+        <v>30081137</v>
       </c>
       <c r="B90" t="s">
         <v>93</v>
@@ -2816,197 +2843,197 @@
         <v>2018</v>
       </c>
       <c r="D90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E90" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>30081137</v>
+        <v>35352940</v>
       </c>
       <c r="B91" t="s">
         <v>94</v>
       </c>
       <c r="C91">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D91" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E91" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>35352940</v>
+        <v>30520598</v>
       </c>
       <c r="B92" t="s">
         <v>95</v>
       </c>
       <c r="C92">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="D92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E92" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>30520598</v>
+        <v>26986806</v>
       </c>
       <c r="B93" t="s">
         <v>96</v>
       </c>
       <c r="C93">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E93" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>26986806</v>
+        <v>36736034</v>
       </c>
       <c r="B94" t="s">
         <v>97</v>
       </c>
       <c r="C94">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="D94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E94" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>36736034</v>
+        <v>23492993</v>
       </c>
       <c r="B95" t="s">
         <v>98</v>
       </c>
       <c r="C95">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="D95" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E95" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>23492993</v>
+        <v>29587236</v>
       </c>
       <c r="B96" t="s">
         <v>99</v>
       </c>
       <c r="C96">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="D96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E96" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>29587236</v>
+        <v>35211096</v>
       </c>
       <c r="B97" t="s">
         <v>100</v>
       </c>
       <c r="C97">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D97" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E97" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>35211096</v>
+        <v>31525160</v>
       </c>
       <c r="B98" t="s">
         <v>101</v>
       </c>
       <c r="C98">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D98" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E98" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>31525160</v>
+        <v>24163946</v>
       </c>
       <c r="B99" t="s">
         <v>102</v>
       </c>
       <c r="C99">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="D99" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E99" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>24163946</v>
+        <v>34808406</v>
       </c>
       <c r="B100" t="s">
         <v>103</v>
       </c>
       <c r="C100">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="D100" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E100" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>302</v>
+      </c>
+      <c r="B101" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101">
-        <v>34808406</v>
-      </c>
-      <c r="B101" t="s">
-        <v>104</v>
-      </c>
-      <c r="C101">
-        <v>2021</v>
+      <c r="C101" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="D101" t="s">
-        <v>204</v>
+        <v>305</v>
       </c>
       <c r="E101" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
